--- a/Code/Results/Cases/Case_0_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_229/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.400996760745406</v>
+        <v>3.525996016902489</v>
       </c>
       <c r="D2">
-        <v>4.863707124030793</v>
+        <v>4.16254988427642</v>
       </c>
       <c r="E2">
-        <v>10.47171290975825</v>
+        <v>11.37259764713656</v>
       </c>
       <c r="F2">
-        <v>13.63611834251678</v>
+        <v>19.24634769706535</v>
       </c>
       <c r="G2">
-        <v>15.12933750271556</v>
+        <v>20.04906349981956</v>
       </c>
       <c r="H2">
-        <v>6.804908296482279</v>
+        <v>12.14333230258115</v>
       </c>
       <c r="I2">
-        <v>10.51046786840088</v>
+        <v>16.47740128438427</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.18003884645031</v>
+        <v>13.00578605792526</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.95310147047373</v>
+        <v>14.78986138790676</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.3441270095313</v>
+        <v>17.30873502555927</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.072952809557435</v>
+        <v>3.359023480698185</v>
       </c>
       <c r="D3">
-        <v>4.632800345688586</v>
+        <v>4.069819882986558</v>
       </c>
       <c r="E3">
-        <v>9.979801063095842</v>
+        <v>11.3489573283096</v>
       </c>
       <c r="F3">
-        <v>13.36379731148442</v>
+        <v>19.32001459102019</v>
       </c>
       <c r="G3">
-        <v>14.77633189561713</v>
+        <v>20.16986236300911</v>
       </c>
       <c r="H3">
-        <v>6.909346298010615</v>
+        <v>12.20724497716377</v>
       </c>
       <c r="I3">
-        <v>10.44766214469503</v>
+        <v>16.55918996104725</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.92371478751149</v>
+        <v>12.3265762931016</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.74585878862319</v>
+        <v>14.41950991951688</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.41523982033222</v>
+        <v>17.41864455020784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.860288519336499</v>
+        <v>3.251436890617226</v>
       </c>
       <c r="D4">
-        <v>4.484669206459905</v>
+        <v>4.011309235506118</v>
       </c>
       <c r="E4">
-        <v>9.685145564463886</v>
+        <v>11.34043073973271</v>
       </c>
       <c r="F4">
-        <v>13.21674910285858</v>
+        <v>19.37282834446628</v>
       </c>
       <c r="G4">
-        <v>14.59631036361328</v>
+        <v>20.25555007798444</v>
       </c>
       <c r="H4">
-        <v>6.980397759570208</v>
+        <v>12.24910654776711</v>
       </c>
       <c r="I4">
-        <v>10.42535291182922</v>
+        <v>16.6147715577058</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.11084022913466</v>
+        <v>11.88808443033535</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.9638543737052</v>
+        <v>14.18925635101785</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.4768333889345</v>
+        <v>17.49160899335379</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.770810095857306</v>
+        <v>3.206352324261267</v>
       </c>
       <c r="D5">
-        <v>4.422751911821774</v>
+        <v>3.987091323915922</v>
       </c>
       <c r="E5">
-        <v>9.56710039113465</v>
+        <v>11.3384586422425</v>
       </c>
       <c r="F5">
-        <v>13.16183140634545</v>
+        <v>19.39624531015028</v>
       </c>
       <c r="G5">
-        <v>14.53200249847201</v>
+        <v>20.29333359571513</v>
       </c>
       <c r="H5">
-        <v>7.011006567185007</v>
+        <v>12.26682363331617</v>
       </c>
       <c r="I5">
-        <v>10.42018527242204</v>
+        <v>16.6387637036264</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.76925029790575</v>
+        <v>11.7041247233049</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.63491970861867</v>
+        <v>14.09484201819463</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.50617236251113</v>
+        <v>17.52271505868261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.75578264219605</v>
+        <v>3.198792070777751</v>
       </c>
       <c r="D6">
-        <v>4.412378296051578</v>
+        <v>3.983047999873351</v>
       </c>
       <c r="E6">
-        <v>9.547626893230564</v>
+        <v>11.33822177922922</v>
       </c>
       <c r="F6">
-        <v>13.15301225664171</v>
+        <v>19.40024777569609</v>
       </c>
       <c r="G6">
-        <v>14.52186402841127</v>
+        <v>20.29977963915553</v>
       </c>
       <c r="H6">
-        <v>7.016186663296313</v>
+        <v>12.26980528189319</v>
       </c>
       <c r="I6">
-        <v>10.41955914003815</v>
+        <v>16.64282845748711</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.71190866366095</v>
+        <v>11.67326413552232</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.57968049813431</v>
+        <v>14.07913335436005</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.51129229899832</v>
+        <v>17.52796293321363</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.859093164608584</v>
+        <v>3.250833848272992</v>
       </c>
       <c r="D7">
-        <v>4.483840389234556</v>
+        <v>4.010984110746596</v>
       </c>
       <c r="E7">
-        <v>9.683545112949966</v>
+        <v>11.34039806590137</v>
       </c>
       <c r="F7">
-        <v>13.21598830154574</v>
+        <v>19.37313649722569</v>
       </c>
       <c r="G7">
-        <v>14.59540673413884</v>
+        <v>20.25604808080061</v>
       </c>
       <c r="H7">
-        <v>6.980803970652107</v>
+        <v>12.24934282224212</v>
       </c>
       <c r="I7">
-        <v>10.42526755822051</v>
+        <v>16.61508969822055</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.10627513192862</v>
+        <v>11.88562464412479</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.95945980125013</v>
+        <v>14.18798522953688</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.47721225420835</v>
+        <v>17.49202295071762</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.290225962597527</v>
+        <v>3.469492276688216</v>
       </c>
       <c r="D8">
-        <v>4.785433574853508</v>
+        <v>4.130915760143463</v>
       </c>
       <c r="E8">
-        <v>10.30067032837565</v>
+        <v>11.36320230653562</v>
       </c>
       <c r="F8">
-        <v>13.53800939247302</v>
+        <v>19.27016762611894</v>
       </c>
       <c r="G8">
-        <v>14.99991466478984</v>
+        <v>20.08830642570111</v>
       </c>
       <c r="H8">
-        <v>6.839426715176036</v>
+        <v>12.1648255915589</v>
       </c>
       <c r="I8">
-        <v>10.48534475283536</v>
+        <v>16.50448512798771</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.75551605259696</v>
+        <v>12.77611449378603</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.54528905151347</v>
+        <v>14.66283542269985</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.36476242541447</v>
+        <v>17.3454912815921</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.046238107943996</v>
+        <v>3.856972569890714</v>
       </c>
       <c r="D9">
-        <v>5.32486944214849</v>
+        <v>4.352734292586979</v>
       </c>
       <c r="E9">
-        <v>11.56257722048764</v>
+        <v>11.45545959636342</v>
       </c>
       <c r="F9">
-        <v>14.33079455785494</v>
+        <v>19.12889126563325</v>
       </c>
       <c r="G9">
-        <v>16.0884943645671</v>
+        <v>19.85206458384134</v>
       </c>
       <c r="H9">
-        <v>6.621385167369774</v>
+        <v>12.01988547024816</v>
       </c>
       <c r="I9">
-        <v>10.73866452720995</v>
+        <v>16.33042240944805</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.65785691735974</v>
+        <v>14.34781733359237</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.33317266012023</v>
+        <v>15.56580992271994</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.29858200577248</v>
+        <v>17.10186451071581</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.547179991790363</v>
+        <v>4.115277364655967</v>
       </c>
       <c r="D10">
-        <v>5.687874786371551</v>
+        <v>4.506473066620459</v>
       </c>
       <c r="E10">
-        <v>12.80228465036213</v>
+        <v>11.55206601624899</v>
       </c>
       <c r="F10">
-        <v>15.01169315530637</v>
+        <v>19.06267780476875</v>
       </c>
       <c r="G10">
-        <v>17.06855374830529</v>
+        <v>19.73670956819512</v>
       </c>
       <c r="H10">
-        <v>6.503653813383721</v>
+        <v>11.92610179872917</v>
       </c>
       <c r="I10">
-        <v>11.01508982010747</v>
+        <v>16.2290230898082</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.58616088098838</v>
+        <v>15.39167745792539</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.18810388374146</v>
+        <v>16.20514208943863</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.36020701160422</v>
+        <v>16.94986133836161</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.763312851283317</v>
+        <v>4.226879677429754</v>
       </c>
       <c r="D11">
-        <v>5.845553654066094</v>
+        <v>4.574205565384279</v>
       </c>
       <c r="E11">
-        <v>13.35454983078767</v>
+        <v>11.60218436813628</v>
       </c>
       <c r="F11">
-        <v>15.34245226391628</v>
+        <v>19.04082886604363</v>
       </c>
       <c r="G11">
-        <v>17.55245404465191</v>
+        <v>19.69720033347084</v>
       </c>
       <c r="H11">
-        <v>6.460854933844172</v>
+        <v>11.8862017806187</v>
       </c>
       <c r="I11">
-        <v>11.16172897889269</v>
+        <v>16.1887212249527</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.41911560755392</v>
+        <v>15.84184227580525</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.99083240312343</v>
+        <v>16.48946479369715</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.41544276867139</v>
+        <v>16.88664483862645</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.843476502224306</v>
+        <v>4.268280570108254</v>
       </c>
       <c r="D12">
-        <v>5.904177713213763</v>
+        <v>4.599521930949057</v>
       </c>
       <c r="E12">
-        <v>13.56168896429775</v>
+        <v>11.62203887818198</v>
       </c>
       <c r="F12">
-        <v>15.47067516309212</v>
+        <v>19.03375247664969</v>
       </c>
       <c r="G12">
-        <v>17.74102911778973</v>
+        <v>19.68412786532173</v>
       </c>
       <c r="H12">
-        <v>6.446333597246245</v>
+        <v>11.87149060064577</v>
       </c>
       <c r="I12">
-        <v>11.22034123694905</v>
+        <v>16.17430363030256</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.72819192892665</v>
+        <v>16.00871861720451</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.28897682946331</v>
+        <v>16.59609694435946</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.44051675006341</v>
+        <v>16.8635654028319</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.826286442450931</v>
+        <v>4.259402580009551</v>
       </c>
       <c r="D13">
-        <v>5.891600425840416</v>
+        <v>4.594084618681218</v>
       </c>
       <c r="E13">
-        <v>13.51716480728189</v>
+        <v>11.61772411631669</v>
       </c>
       <c r="F13">
-        <v>15.44292875749978</v>
+        <v>19.03522313841462</v>
       </c>
       <c r="G13">
-        <v>17.70018133892301</v>
+        <v>19.68685888630307</v>
       </c>
       <c r="H13">
-        <v>6.449383759854306</v>
+        <v>11.87464119769208</v>
       </c>
       <c r="I13">
-        <v>11.20757983176299</v>
+        <v>16.17737109077388</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.66190864325254</v>
+        <v>15.97293908230298</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.22502412477839</v>
+        <v>16.57317929635891</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.43492802937</v>
+        <v>16.86849765188357</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.769941601537139</v>
+        <v>4.230303058263712</v>
       </c>
       <c r="D14">
-        <v>5.850398509652995</v>
+        <v>4.576295105453521</v>
       </c>
       <c r="E14">
-        <v>13.37163063158146</v>
+        <v>11.60380033454349</v>
       </c>
       <c r="F14">
-        <v>15.35294198988716</v>
+        <v>19.04022264975267</v>
       </c>
       <c r="G14">
-        <v>17.56786222020541</v>
+        <v>19.69608686761489</v>
       </c>
       <c r="H14">
-        <v>6.459625647503743</v>
+        <v>11.88498349978159</v>
       </c>
       <c r="I14">
-        <v>11.16648885976425</v>
+        <v>16.18751813415259</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.44467053985116</v>
+        <v>15.85564346698507</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.01547732191643</v>
+        <v>16.49825875459101</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.41742096651129</v>
+        <v>16.8847288210154</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.735210102182726</v>
+        <v>4.212366391460066</v>
       </c>
       <c r="D15">
-        <v>5.825019445751151</v>
+        <v>4.565354779564028</v>
       </c>
       <c r="E15">
-        <v>13.28223033022458</v>
+        <v>11.59538527875581</v>
       </c>
       <c r="F15">
-        <v>15.29820790294004</v>
+        <v>19.04344113741955</v>
       </c>
       <c r="G15">
-        <v>17.48750293164468</v>
+        <v>19.7019859360391</v>
       </c>
       <c r="H15">
-        <v>6.466122881626772</v>
+        <v>11.89137032682016</v>
       </c>
       <c r="I15">
-        <v>11.14172303373209</v>
+        <v>16.19384356490756</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.31078024453431</v>
+        <v>15.78332777896312</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.8863668693188</v>
+        <v>16.45223023991054</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.40724574018405</v>
+        <v>16.89478297756261</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.532819447970077</v>
+        <v>4.107864066238025</v>
       </c>
       <c r="D16">
-        <v>5.677418849071923</v>
+        <v>4.502000881532207</v>
       </c>
       <c r="E16">
-        <v>12.76590885142587</v>
+        <v>11.54891391049027</v>
       </c>
       <c r="F16">
-        <v>14.99049598051544</v>
+        <v>19.06427282984021</v>
       </c>
       <c r="G16">
-        <v>17.03768403597173</v>
+        <v>19.73955463035393</v>
       </c>
       <c r="H16">
-        <v>6.506678962354465</v>
+        <v>11.9287650199281</v>
       </c>
       <c r="I16">
-        <v>11.00593414057125</v>
+        <v>16.23177466353805</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.53083618976</v>
+        <v>15.36175756603675</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.13482325827082</v>
+        <v>16.18642129952337</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.35716607323464</v>
+        <v>16.95411257525761</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.405655468185318</v>
+        <v>4.042234486574701</v>
       </c>
       <c r="D17">
-        <v>5.584950491909575</v>
+        <v>4.462559358932499</v>
       </c>
       <c r="E17">
-        <v>12.44551425758521</v>
+        <v>11.52197841079821</v>
       </c>
       <c r="F17">
-        <v>14.80707342901035</v>
+        <v>19.07917693437948</v>
       </c>
       <c r="G17">
-        <v>16.77138998518335</v>
+        <v>19.76594075382286</v>
       </c>
       <c r="H17">
-        <v>6.534410167594876</v>
+        <v>11.95241360770577</v>
       </c>
       <c r="I17">
-        <v>10.92804456755818</v>
+        <v>16.2565406104676</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.04104212106287</v>
+        <v>15.09678159644054</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.66330373250091</v>
+        <v>16.02161559111843</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.33359209738603</v>
+        <v>16.99203290387435</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.331407677690446</v>
+        <v>4.00393111585186</v>
       </c>
       <c r="D18">
-        <v>5.531064059470578</v>
+        <v>4.439667029490402</v>
       </c>
       <c r="E18">
-        <v>12.25986397597474</v>
+        <v>11.50706758828217</v>
       </c>
       <c r="F18">
-        <v>14.70355526631092</v>
+        <v>19.08852756598222</v>
       </c>
       <c r="G18">
-        <v>16.62181786411576</v>
+        <v>19.7823364864561</v>
       </c>
       <c r="H18">
-        <v>6.551364156238766</v>
+        <v>11.96627563118025</v>
       </c>
       <c r="I18">
-        <v>10.88520739425068</v>
+        <v>16.27133326602815</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.75515956170673</v>
+        <v>14.94205201084955</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.38822549386607</v>
+        <v>15.92621604035087</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.32257980298763</v>
+        <v>17.01440149058712</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.306078408170497</v>
+        <v>3.990867335630579</v>
       </c>
       <c r="D19">
-        <v>5.512699110547679</v>
+        <v>4.431881088726282</v>
       </c>
       <c r="E19">
-        <v>12.19676872969886</v>
+        <v>11.50211927357829</v>
       </c>
       <c r="F19">
-        <v>14.66884757156214</v>
+        <v>19.09182692743839</v>
       </c>
       <c r="G19">
-        <v>16.57179644873774</v>
+        <v>19.78809641193735</v>
       </c>
       <c r="H19">
-        <v>6.557272787126863</v>
+        <v>11.9710137016726</v>
       </c>
       <c r="I19">
-        <v>10.8710378997455</v>
+        <v>16.27643572167587</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.65764884922994</v>
+        <v>14.88926575020954</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.29442138974461</v>
+        <v>15.89381415103218</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.31928083440311</v>
+        <v>17.02207071852369</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.41930675020959</v>
+        <v>4.049278398088758</v>
       </c>
       <c r="D20">
-        <v>5.594866576900872</v>
+        <v>4.466779476058216</v>
       </c>
       <c r="E20">
-        <v>12.4797617997938</v>
+        <v>11.52478560700695</v>
       </c>
       <c r="F20">
-        <v>14.82639432689969</v>
+        <v>19.07750976769799</v>
       </c>
       <c r="G20">
-        <v>16.79936653225532</v>
+        <v>19.76300554752647</v>
       </c>
       <c r="H20">
-        <v>6.531353272456728</v>
+        <v>11.94986926220965</v>
       </c>
       <c r="I20">
-        <v>10.93613227255996</v>
+        <v>16.25384747805525</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.09361262055537</v>
+        <v>15.12522942621447</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.71389806820745</v>
+        <v>16.03922306858586</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.33583615469228</v>
+        <v>16.98793844139902</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.786536997446315</v>
+        <v>4.238873728663521</v>
       </c>
       <c r="D21">
-        <v>5.86253006022214</v>
+        <v>4.58152945705439</v>
       </c>
       <c r="E21">
-        <v>13.41443079785114</v>
+        <v>11.60786642391585</v>
       </c>
       <c r="F21">
-        <v>15.37929306255774</v>
+        <v>19.03872161957773</v>
       </c>
       <c r="G21">
-        <v>17.60658402995249</v>
+        <v>19.69332494116821</v>
       </c>
       <c r="H21">
-        <v>6.456570461808255</v>
+        <v>11.88193490410315</v>
       </c>
       <c r="I21">
-        <v>11.1784740506086</v>
+        <v>16.1845147515556</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.50865066240195</v>
+        <v>15.89019377627561</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.07718390227151</v>
+        <v>16.5202935564249</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.42244852990736</v>
+        <v>16.87993796069827</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.016749338423804</v>
+        <v>4.357765826842588</v>
       </c>
       <c r="D22">
-        <v>6.031132862288616</v>
+        <v>4.654581046957725</v>
       </c>
       <c r="E22">
-        <v>14.01373720714981</v>
+        <v>11.66726209349898</v>
       </c>
       <c r="F22">
-        <v>15.75793939431367</v>
+        <v>19.02035316754856</v>
       </c>
       <c r="G22">
-        <v>18.16515655535773</v>
+        <v>19.65880380575856</v>
       </c>
       <c r="H22">
-        <v>6.417591039374006</v>
+        <v>11.83985666402308</v>
       </c>
       <c r="I22">
-        <v>11.35485485724504</v>
+        <v>16.14412310191613</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.39648909195252</v>
+        <v>16.3691968097448</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.93422197284803</v>
+        <v>16.82863021842789</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.50338566182447</v>
+        <v>16.81436498429354</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.894773552863971</v>
+        <v>4.294773453159526</v>
       </c>
       <c r="D23">
-        <v>5.941729126528462</v>
+        <v>4.61577473172752</v>
       </c>
       <c r="E23">
-        <v>13.69489888726893</v>
+        <v>11.63509957924062</v>
       </c>
       <c r="F23">
-        <v>15.55428389638381</v>
+        <v>19.0295155977066</v>
       </c>
       <c r="G23">
-        <v>17.86424838954179</v>
+        <v>19.67621268708906</v>
       </c>
       <c r="H23">
-        <v>6.437441714208596</v>
+        <v>11.86210197704415</v>
       </c>
       <c r="I23">
-        <v>11.25904855410388</v>
+        <v>16.16522860026602</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.92600732763526</v>
+        <v>16.11547142701681</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.47988308801725</v>
+        <v>16.66465092189916</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.45788609763722</v>
+        <v>16.84890180397199</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.413138555566903</v>
+        <v>4.046095626599747</v>
       </c>
       <c r="D24">
-        <v>5.590385772456024</v>
+        <v>4.464872235423191</v>
       </c>
       <c r="E24">
-        <v>12.46428301240593</v>
+        <v>11.52351468243084</v>
       </c>
       <c r="F24">
-        <v>14.8176533214772</v>
+        <v>19.07826105828009</v>
       </c>
       <c r="G24">
-        <v>16.78670734856477</v>
+        <v>19.76432873725185</v>
       </c>
       <c r="H24">
-        <v>6.532732156274705</v>
+        <v>11.95101873185791</v>
       </c>
       <c r="I24">
-        <v>10.93246977659877</v>
+        <v>16.25506331681123</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.06985887187929</v>
+        <v>15.11237560784203</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.69103681948822</v>
+        <v>16.03126474680554</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.33481372158317</v>
+        <v>16.9897877800473</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.851303322401325</v>
+        <v>3.756709446396635</v>
       </c>
       <c r="D25">
-        <v>5.184694683145029</v>
+        <v>4.294274398983971</v>
       </c>
       <c r="E25">
-        <v>11.21653108920873</v>
+        <v>11.42541772307648</v>
       </c>
       <c r="F25">
-        <v>14.09896001654879</v>
+        <v>19.16055131490173</v>
       </c>
       <c r="G25">
-        <v>15.76211647832078</v>
+        <v>19.90586849478484</v>
       </c>
       <c r="H25">
-        <v>6.673406297857117</v>
+        <v>12.05686662789099</v>
       </c>
       <c r="I25">
-        <v>10.65476571197932</v>
+        <v>16.37288635150249</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.90848205093521</v>
+        <v>13.94183987351289</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.61318093598048</v>
+        <v>15.32529306826524</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.29826991244497</v>
+        <v>17.16305689228697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_229/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_229/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.525996016902489</v>
+        <v>5.400996760745337</v>
       </c>
       <c r="D2">
-        <v>4.16254988427642</v>
+        <v>4.863707124030867</v>
       </c>
       <c r="E2">
-        <v>11.37259764713656</v>
+        <v>10.47171290975824</v>
       </c>
       <c r="F2">
-        <v>19.24634769706535</v>
+        <v>13.63611834251669</v>
       </c>
       <c r="G2">
-        <v>20.04906349981956</v>
+        <v>15.12933750271547</v>
       </c>
       <c r="H2">
-        <v>12.14333230258115</v>
+        <v>6.804908296482168</v>
       </c>
       <c r="I2">
-        <v>16.47740128438427</v>
+        <v>10.51046786840082</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.00578605792526</v>
+        <v>21.18003884645034</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.78986138790676</v>
+        <v>18.95310147047375</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.30873502555927</v>
+        <v>10.34412700953119</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.359023480698185</v>
+        <v>5.072952809557493</v>
       </c>
       <c r="D3">
-        <v>4.069819882986558</v>
+        <v>4.632800345688665</v>
       </c>
       <c r="E3">
-        <v>11.3489573283096</v>
+        <v>9.979801063095836</v>
       </c>
       <c r="F3">
-        <v>19.32001459102019</v>
+        <v>13.36379731148421</v>
       </c>
       <c r="G3">
-        <v>20.16986236300911</v>
+        <v>14.7763318956169</v>
       </c>
       <c r="H3">
-        <v>12.20724497716377</v>
+        <v>6.909346298010434</v>
       </c>
       <c r="I3">
-        <v>16.55918996104725</v>
+        <v>10.44766214469487</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.3265762931016</v>
+        <v>19.92371478751154</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.41950991951688</v>
+        <v>17.74585878862322</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.41864455020784</v>
+        <v>10.41523982033205</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.251436890617226</v>
+        <v>4.860288519336388</v>
       </c>
       <c r="D4">
-        <v>4.011309235506118</v>
+        <v>4.484669206459945</v>
       </c>
       <c r="E4">
-        <v>11.34043073973271</v>
+        <v>9.685145564463886</v>
       </c>
       <c r="F4">
-        <v>19.37282834446628</v>
+        <v>13.2167491028586</v>
       </c>
       <c r="G4">
-        <v>20.25555007798444</v>
+        <v>14.59631036361334</v>
       </c>
       <c r="H4">
-        <v>12.24910654776711</v>
+        <v>6.980397759570208</v>
       </c>
       <c r="I4">
-        <v>16.6147715577058</v>
+        <v>10.42535291182931</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.88808443033535</v>
+        <v>19.11084022913463</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.18925635101785</v>
+        <v>16.96385437370519</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.49160899335379</v>
+        <v>10.47683338893454</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.206352324261267</v>
+        <v>4.770810095857306</v>
       </c>
       <c r="D5">
-        <v>3.987091323915922</v>
+        <v>4.422751911821922</v>
       </c>
       <c r="E5">
-        <v>11.3384586422425</v>
+        <v>9.567100391134623</v>
       </c>
       <c r="F5">
-        <v>19.39624531015028</v>
+        <v>13.16183140634542</v>
       </c>
       <c r="G5">
-        <v>20.29333359571513</v>
+        <v>14.53200249847221</v>
       </c>
       <c r="H5">
-        <v>12.26682363331617</v>
+        <v>7.011006567184896</v>
       </c>
       <c r="I5">
-        <v>16.6387637036264</v>
+        <v>10.42018527242209</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.7041247233049</v>
+        <v>18.76925029790575</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.09484201819463</v>
+        <v>16.63491970861869</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.52271505868261</v>
+        <v>10.50617236251115</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.198792070777751</v>
+        <v>4.75578264219618</v>
       </c>
       <c r="D6">
-        <v>3.983047999873351</v>
+        <v>4.412378296051632</v>
       </c>
       <c r="E6">
-        <v>11.33822177922922</v>
+        <v>9.547626893230564</v>
       </c>
       <c r="F6">
-        <v>19.40024777569609</v>
+        <v>13.15301225664182</v>
       </c>
       <c r="G6">
-        <v>20.29977963915553</v>
+        <v>14.52186402841152</v>
       </c>
       <c r="H6">
-        <v>12.26980528189319</v>
+        <v>7.016186663296373</v>
       </c>
       <c r="I6">
-        <v>16.64282845748711</v>
+        <v>10.41955914003824</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.67326413552232</v>
+        <v>18.71190866366092</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.07913335436005</v>
+        <v>16.57968049813429</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.52796293321363</v>
+        <v>10.5112922989985</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.250833848272992</v>
+        <v>4.859093164608528</v>
       </c>
       <c r="D7">
-        <v>4.010984110746596</v>
+        <v>4.48384038923459</v>
       </c>
       <c r="E7">
-        <v>11.34039806590137</v>
+        <v>9.68354511295</v>
       </c>
       <c r="F7">
-        <v>19.37313649722569</v>
+        <v>13.2159883015457</v>
       </c>
       <c r="G7">
-        <v>20.25604808080061</v>
+        <v>14.59540673413899</v>
       </c>
       <c r="H7">
-        <v>12.24934282224212</v>
+        <v>6.980803970652056</v>
       </c>
       <c r="I7">
-        <v>16.61508969822055</v>
+        <v>10.42526755822054</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.88562464412479</v>
+        <v>19.10627513192862</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.18798522953688</v>
+        <v>16.95945980125011</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.49202295071762</v>
+        <v>10.47721225420835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.469492276688216</v>
+        <v>5.290225962597474</v>
       </c>
       <c r="D8">
-        <v>4.130915760143463</v>
+        <v>4.785433574853553</v>
       </c>
       <c r="E8">
-        <v>11.36320230653562</v>
+        <v>10.30067032837567</v>
       </c>
       <c r="F8">
-        <v>19.27016762611894</v>
+        <v>13.53800939247307</v>
       </c>
       <c r="G8">
-        <v>20.08830642570111</v>
+        <v>14.99991466478998</v>
       </c>
       <c r="H8">
-        <v>12.1648255915589</v>
+        <v>6.839426715176036</v>
       </c>
       <c r="I8">
-        <v>16.50448512798771</v>
+        <v>10.48534475283546</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.77611449378603</v>
+        <v>20.75551605259691</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.66283542269985</v>
+        <v>18.54528905151342</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.3454912815921</v>
+        <v>10.36476242541461</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.856972569890714</v>
+        <v>6.046238107943945</v>
       </c>
       <c r="D9">
-        <v>4.352734292586979</v>
+        <v>5.324869442148468</v>
       </c>
       <c r="E9">
-        <v>11.45545959636342</v>
+        <v>11.56257722048763</v>
       </c>
       <c r="F9">
-        <v>19.12889126563325</v>
+        <v>14.330794557855</v>
       </c>
       <c r="G9">
-        <v>19.85206458384134</v>
+        <v>16.08849436456715</v>
       </c>
       <c r="H9">
-        <v>12.01988547024816</v>
+        <v>6.621385167369838</v>
       </c>
       <c r="I9">
-        <v>16.33042240944805</v>
+        <v>10.73866452720998</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.34781733359237</v>
+        <v>23.65785691735972</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.56580992271994</v>
+        <v>21.33317266012021</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.10186451071581</v>
+        <v>10.2985820057725</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.115277364655967</v>
+        <v>6.547179991790427</v>
       </c>
       <c r="D10">
-        <v>4.506473066620459</v>
+        <v>5.687874786371551</v>
       </c>
       <c r="E10">
-        <v>11.55206601624899</v>
+        <v>12.80228465036214</v>
       </c>
       <c r="F10">
-        <v>19.06267780476875</v>
+        <v>15.01169315530638</v>
       </c>
       <c r="G10">
-        <v>19.73670956819512</v>
+        <v>17.06855374830537</v>
       </c>
       <c r="H10">
-        <v>11.92610179872917</v>
+        <v>6.503653813383687</v>
       </c>
       <c r="I10">
-        <v>16.2290230898082</v>
+        <v>11.01508982010744</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.39167745792539</v>
+        <v>25.58616088098845</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.20514208943863</v>
+        <v>23.1881038837415</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.94986133836161</v>
+        <v>10.36020701160419</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.226879677429754</v>
+        <v>6.763312851283302</v>
       </c>
       <c r="D11">
-        <v>4.574205565384279</v>
+        <v>5.845553654066187</v>
       </c>
       <c r="E11">
-        <v>11.60218436813628</v>
+        <v>13.35454983078765</v>
       </c>
       <c r="F11">
-        <v>19.04082886604363</v>
+        <v>15.34245226391625</v>
       </c>
       <c r="G11">
-        <v>19.69720033347084</v>
+        <v>17.55245404465184</v>
       </c>
       <c r="H11">
-        <v>11.8862017806187</v>
+        <v>6.460854933844084</v>
       </c>
       <c r="I11">
-        <v>16.1887212249527</v>
+        <v>11.16172897889265</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.84184227580525</v>
+        <v>26.41911560755393</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.48946479369715</v>
+        <v>23.99083240312342</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.88664483862645</v>
+        <v>10.41544276867132</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.268280570108254</v>
+        <v>6.843476502224338</v>
       </c>
       <c r="D12">
-        <v>4.599521930949057</v>
+        <v>5.904177713213778</v>
       </c>
       <c r="E12">
-        <v>11.62203887818198</v>
+        <v>13.56168896429779</v>
       </c>
       <c r="F12">
-        <v>19.03375247664969</v>
+        <v>15.47067516309215</v>
       </c>
       <c r="G12">
-        <v>19.68412786532173</v>
+        <v>17.74102911778975</v>
       </c>
       <c r="H12">
-        <v>11.87149060064577</v>
+        <v>6.446333597246245</v>
       </c>
       <c r="I12">
-        <v>16.17430363030256</v>
+        <v>11.22034123694907</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.00871861720451</v>
+        <v>26.72819192892664</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.59609694435946</v>
+        <v>24.28897682946331</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.8635654028319</v>
+        <v>10.44051675006343</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.259402580009551</v>
+        <v>6.826286442450916</v>
       </c>
       <c r="D13">
-        <v>4.594084618681218</v>
+        <v>5.891600425840477</v>
       </c>
       <c r="E13">
-        <v>11.61772411631669</v>
+        <v>13.51716480728185</v>
       </c>
       <c r="F13">
-        <v>19.03522313841462</v>
+        <v>15.44292875749975</v>
       </c>
       <c r="G13">
-        <v>19.68685888630307</v>
+        <v>17.70018133892302</v>
       </c>
       <c r="H13">
-        <v>11.87464119769208</v>
+        <v>6.449383759854268</v>
       </c>
       <c r="I13">
-        <v>16.17737109077388</v>
+        <v>11.20757983176298</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.97293908230298</v>
+        <v>26.66190864325254</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.57317929635891</v>
+        <v>24.22502412477838</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.86849765188357</v>
+        <v>10.43492802936997</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.230303058263712</v>
+        <v>6.769941601537075</v>
       </c>
       <c r="D14">
-        <v>4.576295105453521</v>
+        <v>5.850398509653009</v>
       </c>
       <c r="E14">
-        <v>11.60380033454349</v>
+        <v>13.37163063158143</v>
       </c>
       <c r="F14">
-        <v>19.04022264975267</v>
+        <v>15.35294198988723</v>
       </c>
       <c r="G14">
-        <v>19.69608686761489</v>
+        <v>17.56786222020548</v>
       </c>
       <c r="H14">
-        <v>11.88498349978159</v>
+        <v>6.459625647503787</v>
       </c>
       <c r="I14">
-        <v>16.18751813415259</v>
+        <v>11.16648885976433</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.85564346698507</v>
+        <v>26.44467053985111</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.49825875459101</v>
+        <v>24.0154773219164</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.8847288210154</v>
+        <v>10.41742096651137</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.212366391460066</v>
+        <v>6.735210102182691</v>
       </c>
       <c r="D15">
-        <v>4.565354779564028</v>
+        <v>5.825019445751073</v>
       </c>
       <c r="E15">
-        <v>11.59538527875581</v>
+        <v>13.28223033022452</v>
       </c>
       <c r="F15">
-        <v>19.04344113741955</v>
+        <v>15.29820790293997</v>
       </c>
       <c r="G15">
-        <v>19.7019859360391</v>
+        <v>17.48750293164458</v>
       </c>
       <c r="H15">
-        <v>11.89137032682016</v>
+        <v>6.466122881626683</v>
       </c>
       <c r="I15">
-        <v>16.19384356490756</v>
+        <v>11.14172303373202</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.78332777896312</v>
+        <v>26.31078024453434</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.45223023991054</v>
+        <v>23.8863668693188</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.89478297756261</v>
+        <v>10.40724574018396</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.107864066238025</v>
+        <v>6.532819447969965</v>
       </c>
       <c r="D16">
-        <v>4.502000881532207</v>
+        <v>5.6774188490719</v>
       </c>
       <c r="E16">
-        <v>11.54891391049027</v>
+        <v>12.76590885142584</v>
       </c>
       <c r="F16">
-        <v>19.06427282984021</v>
+        <v>14.99049598051548</v>
       </c>
       <c r="G16">
-        <v>19.73955463035393</v>
+        <v>17.03768403597177</v>
       </c>
       <c r="H16">
-        <v>11.9287650199281</v>
+        <v>6.506678962354454</v>
       </c>
       <c r="I16">
-        <v>16.23177466353805</v>
+        <v>11.00593414057128</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.36175756603675</v>
+        <v>25.53083618975999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.18642129952337</v>
+        <v>23.1348232582708</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.95411257525761</v>
+        <v>10.35716607323465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.042234486574701</v>
+        <v>6.405655468185286</v>
       </c>
       <c r="D17">
-        <v>4.462559358932499</v>
+        <v>5.584950491909594</v>
       </c>
       <c r="E17">
-        <v>11.52197841079821</v>
+        <v>12.4455142575852</v>
       </c>
       <c r="F17">
-        <v>19.07917693437948</v>
+        <v>14.80707342901029</v>
       </c>
       <c r="G17">
-        <v>19.76594075382286</v>
+        <v>16.77138998518326</v>
       </c>
       <c r="H17">
-        <v>11.95241360770577</v>
+        <v>6.534410167594876</v>
       </c>
       <c r="I17">
-        <v>16.2565406104676</v>
+        <v>10.92804456755814</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.09678159644054</v>
+        <v>25.04104212106292</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.02161559111843</v>
+        <v>22.66330373250092</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.99203290387435</v>
+        <v>10.33359209738595</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.00393111585186</v>
+        <v>6.33140767769043</v>
       </c>
       <c r="D18">
-        <v>4.439667029490402</v>
+        <v>5.531064059470603</v>
       </c>
       <c r="E18">
-        <v>11.50706758828217</v>
+        <v>12.25986397597473</v>
       </c>
       <c r="F18">
-        <v>19.08852756598222</v>
+        <v>14.70355526631087</v>
       </c>
       <c r="G18">
-        <v>19.7823364864561</v>
+        <v>16.62181786411567</v>
       </c>
       <c r="H18">
-        <v>11.96627563118025</v>
+        <v>6.551364156238761</v>
       </c>
       <c r="I18">
-        <v>16.27133326602815</v>
+        <v>10.88520739425064</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.94205201084955</v>
+        <v>24.75515956170675</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.92621604035087</v>
+        <v>22.38822549386606</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.01440149058712</v>
+        <v>10.32257980298757</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.990867335630579</v>
+        <v>6.306078408170512</v>
       </c>
       <c r="D19">
-        <v>4.431881088726282</v>
+        <v>5.512699110547714</v>
       </c>
       <c r="E19">
-        <v>11.50211927357829</v>
+        <v>12.19676872969888</v>
       </c>
       <c r="F19">
-        <v>19.09182692743839</v>
+        <v>14.668847571562</v>
       </c>
       <c r="G19">
-        <v>19.78809641193735</v>
+        <v>16.57179644873768</v>
       </c>
       <c r="H19">
-        <v>11.9710137016726</v>
+        <v>6.557272787126705</v>
       </c>
       <c r="I19">
-        <v>16.27643572167587</v>
+        <v>10.87103789974538</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.88926575020954</v>
+        <v>24.65764884922998</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.89381415103218</v>
+        <v>22.29442138974464</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.02207071852369</v>
+        <v>10.31928083440297</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.049278398088758</v>
+        <v>6.419306750209635</v>
       </c>
       <c r="D20">
-        <v>4.466779476058216</v>
+        <v>5.594866576900951</v>
       </c>
       <c r="E20">
-        <v>11.52478560700695</v>
+        <v>12.4797617997938</v>
       </c>
       <c r="F20">
-        <v>19.07750976769799</v>
+        <v>14.82639432689964</v>
       </c>
       <c r="G20">
-        <v>19.76300554752647</v>
+        <v>16.79936653225525</v>
       </c>
       <c r="H20">
-        <v>11.94986926220965</v>
+        <v>6.53135327245677</v>
       </c>
       <c r="I20">
-        <v>16.25384747805525</v>
+        <v>10.93613227255994</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.12522942621447</v>
+        <v>25.09361262055536</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.03922306858586</v>
+        <v>22.71389806820745</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.98793844139902</v>
+        <v>10.33583615469225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.238873728663521</v>
+        <v>6.786536997446266</v>
       </c>
       <c r="D21">
-        <v>4.58152945705439</v>
+        <v>5.862530060222071</v>
       </c>
       <c r="E21">
-        <v>11.60786642391585</v>
+        <v>13.41443079785111</v>
       </c>
       <c r="F21">
-        <v>19.03872161957773</v>
+        <v>15.37929306255777</v>
       </c>
       <c r="G21">
-        <v>19.69332494116821</v>
+        <v>17.60658402995243</v>
       </c>
       <c r="H21">
-        <v>11.88193490410315</v>
+        <v>6.456570461808298</v>
       </c>
       <c r="I21">
-        <v>16.1845147515556</v>
+        <v>11.17847405060866</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.89019377627561</v>
+        <v>26.50865066240192</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.5202935564249</v>
+        <v>24.07718390227148</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.87993796069827</v>
+        <v>10.42244852990743</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.357765826842588</v>
+        <v>7.016749338423869</v>
       </c>
       <c r="D22">
-        <v>4.654581046957725</v>
+        <v>6.031132862288667</v>
       </c>
       <c r="E22">
-        <v>11.66726209349898</v>
+        <v>14.01373720714986</v>
       </c>
       <c r="F22">
-        <v>19.02035316754856</v>
+        <v>15.7579393943136</v>
       </c>
       <c r="G22">
-        <v>19.65880380575856</v>
+        <v>18.16515655535763</v>
       </c>
       <c r="H22">
-        <v>11.83985666402308</v>
+        <v>6.417591039373958</v>
       </c>
       <c r="I22">
-        <v>16.14412310191613</v>
+        <v>11.35485485724498</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.3691968097448</v>
+        <v>27.39648909195252</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.82863021842789</v>
+        <v>24.93422197284808</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.81436498429354</v>
+        <v>10.50338566182439</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.294773453159526</v>
+        <v>6.894773552863971</v>
       </c>
       <c r="D23">
-        <v>4.61577473172752</v>
+        <v>5.941729126528459</v>
       </c>
       <c r="E23">
-        <v>11.63509957924062</v>
+        <v>13.69489888726892</v>
       </c>
       <c r="F23">
-        <v>19.0295155977066</v>
+        <v>15.55428389638374</v>
       </c>
       <c r="G23">
-        <v>19.67621268708906</v>
+        <v>17.86424838954181</v>
       </c>
       <c r="H23">
-        <v>11.86210197704415</v>
+        <v>6.437441714208488</v>
       </c>
       <c r="I23">
-        <v>16.16522860026602</v>
+        <v>11.2590485541038</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.11547142701681</v>
+        <v>26.92600732763532</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.66465092189916</v>
+        <v>24.4798830880173</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.84890180397199</v>
+        <v>10.45788609763711</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.046095626599747</v>
+        <v>6.413138555566873</v>
       </c>
       <c r="D24">
-        <v>4.464872235423191</v>
+        <v>5.59038577245613</v>
       </c>
       <c r="E24">
-        <v>11.52351468243084</v>
+        <v>12.46428301240595</v>
       </c>
       <c r="F24">
-        <v>19.07826105828009</v>
+        <v>14.81765332147713</v>
       </c>
       <c r="G24">
-        <v>19.76432873725185</v>
+        <v>16.78670734856475</v>
       </c>
       <c r="H24">
-        <v>11.95101873185791</v>
+        <v>6.532732156274669</v>
       </c>
       <c r="I24">
-        <v>16.25506331681123</v>
+        <v>10.93246977659875</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.11237560784203</v>
+        <v>25.06985887187933</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.03126474680554</v>
+        <v>22.69103681948825</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.9897877800473</v>
+        <v>10.33481372158312</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.756709446396635</v>
+        <v>5.851303322401428</v>
       </c>
       <c r="D25">
-        <v>4.294274398983971</v>
+        <v>5.184694683145008</v>
       </c>
       <c r="E25">
-        <v>11.42541772307648</v>
+        <v>11.21653108920875</v>
       </c>
       <c r="F25">
-        <v>19.16055131490173</v>
+        <v>14.09896001654874</v>
       </c>
       <c r="G25">
-        <v>19.90586849478484</v>
+        <v>15.7621164783207</v>
       </c>
       <c r="H25">
-        <v>12.05686662789099</v>
+        <v>6.673406297857117</v>
       </c>
       <c r="I25">
-        <v>16.37288635150249</v>
+        <v>10.65476571197923</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.94183987351289</v>
+        <v>22.90848205093525</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.32529306826524</v>
+        <v>20.61318093598051</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.16305689228697</v>
+        <v>10.2982699124449</v>
       </c>
     </row>
   </sheetData>
